--- a/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.267500770128467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.921340538543724</v>
+        <v>1.921340538543723</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.018591533493231</v>
@@ -649,7 +649,7 @@
         <v>0.5683811377912638</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3070015670538403</v>
+        <v>0.30700156705384</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.249677545078248</v>
+        <v>0.5381922259038672</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.240776640592054</v>
+        <v>-1.186763711256446</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.7549336290472948</v>
+        <v>-0.8372590100006785</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.8566591383763879</v>
+        <v>-0.5340746209507108</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03267890052206542</v>
+        <v>-0.001736701553526201</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1259211384715752</v>
+        <v>-0.1100449523313579</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1305034830794848</v>
+        <v>-0.1263449731733259</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1500294347717408</v>
+        <v>-0.08825876684641652</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.660602335453637</v>
+        <v>6.900241344880468</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.268370668383382</v>
+        <v>8.572527880874716</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.267280190146096</v>
+        <v>6.970502074831418</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.462775753005868</v>
+        <v>4.779202203199892</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.226670485958389</v>
+        <v>3.073088503143893</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.461966750851097</v>
+        <v>1.524448941147859</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.814276599289234</v>
+        <v>1.674844387748471</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8892968593424376</v>
+        <v>0.9577385316797071</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>13.86091620649633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15.96726471578115</v>
+        <v>15.96726471578116</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4170634214051495</v>
@@ -749,7 +749,7 @@
         <v>0.7001478834778446</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.7558308354646922</v>
+        <v>0.7558308354646927</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7605089609175166</v>
+        <v>-0.9452593495987036</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.887423748247167</v>
+        <v>7.193583715299916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.062237328976733</v>
+        <v>7.263759103737039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10.91260649756655</v>
+        <v>10.61020144786506</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06364512325225236</v>
+        <v>-0.08610960664363534</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2344022060534377</v>
+        <v>0.2507044891544599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3215452177172638</v>
+        <v>0.3063156259887104</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4442700979390727</v>
+        <v>0.4324220053313599</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.16100810129091</v>
+        <v>11.93088986912895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>22.09891320139906</v>
+        <v>23.00711798504829</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20.64134033299882</v>
+        <v>21.34401925239431</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.84375832148096</v>
+        <v>20.85618377964118</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.09294326336646</v>
+        <v>1.089530171045904</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.118373592465918</v>
+        <v>1.21173103165036</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.266466967299374</v>
+        <v>1.317072904359716</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.161459536865371</v>
+        <v>1.174149641314166</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.8298796500782175</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8200346214751915</v>
+        <v>0.8200346214751912</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.080230830872186</v>
+        <v>2.405450944953989</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.954187968634899</v>
+        <v>6.344564509170134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.525383723767781</v>
+        <v>5.364272651490042</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.406327905298013</v>
+        <v>7.316515275150897</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2100832835441862</v>
+        <v>0.2342647159190188</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3425977606057591</v>
+        <v>0.3576711453825235</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.409366970432433</v>
+        <v>0.3808277632172115</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.508820946020217</v>
+        <v>0.5055791330562723</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.245602558854916</v>
+        <v>9.31431996039338</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.49122306510231</v>
+        <v>15.80987948282639</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.10308705858781</v>
+        <v>13.80864907359301</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.10859190553509</v>
+        <v>13.41031368129005</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.503216588305722</v>
+        <v>1.431404834682538</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.246927626988994</v>
+        <v>1.314015663879516</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.412109966089</v>
+        <v>1.313169817896635</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.213923436664464</v>
+        <v>1.199940188956802</v>
       </c>
     </row>
     <row r="13">
